--- a/biology/Botanique/Ledum/Ledum.xlsx
+++ b/biology/Botanique/Ledum/Ledum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lédon (Ledum) est un genre de plantes à fleurs de la famille des Éricacées. Ce sont de petits buissons, généralement à feuillage persistant et à feuillage aromatique. On les trouve à l'état naturel, dans les régions tempérées fraîches et les régions subarctiques de l'hémisphère nord[1].
-Le genre Ledum a d'abord été cité dans le Species Plantarum de Linné en 1753[2]. Depuis, certaines espèces de ce genre ont été déplacées vers le genre Rhododendron où le nom peut conserver la valeur d'une sous-section Rhododendron subsect. Ledum (L.) Kron &amp; Judd.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lédon (Ledum) est un genre de plantes à fleurs de la famille des Éricacées. Ce sont de petits buissons, généralement à feuillage persistant et à feuillage aromatique. On les trouve à l'état naturel, dans les régions tempérées fraîches et les régions subarctiques de l'hémisphère nord.
+Le genre Ledum a d'abord été cité dans le Species Plantarum de Linné en 1753. Depuis, certaines espèces de ce genre ont été déplacées vers le genre Rhododendron où le nom peut conserver la valeur d'une sous-section Rhododendron subsect. Ledum (L.) Kron &amp; Judd.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lédons sont des plantes de tourbière.
 </t>
@@ -543,13 +557,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1994, le genre Ledum comprenait quatre espèces, dont L. glandulosum, L. groenlandicum et L. palustre[1]. La liste suivante redirige vers les synonymes et les noms latins couramment acceptés:
-Ledum buxifolium = Leiophyllum buxifolium[1]
-Ledum decumbens = Rhododendron tomentosum[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1994, le genre Ledum comprenait quatre espèces, dont L. glandulosum, L. groenlandicum et L. palustre. La liste suivante redirige vers les synonymes et les noms latins couramment acceptés:
+Ledum buxifolium = Leiophyllum buxifolium
+Ledum decumbens = Rhododendron tomentosum
 Ledum glandulosum = Rhododendron neoglandulosum
-Ledum groenlandicum = Rhododendron groenlandicum[4]
+Ledum groenlandicum = Rhododendron groenlandicum
 Ledum hypoleucum = Rhododendron hypoleucum
 Ledum macrophyllum = Rhododendron tolmachevii
 Ledum palustre (Syn.: Ledum nipponicum)  — lédon des marais, plante utilisée en homéopathie
